--- a/OpenText_Assignment_SampleTestCases.xlsx
+++ b/OpenText_Assignment_SampleTestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aniru\Desktop\neha\Assignments\PythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBF03C3-8D38-4217-B866-C2928DCD0DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C77502-FD4F-4F35-A15D-2739F750F42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -125,33 +125,75 @@
     <t>The installer file has been downloaded.</t>
   </si>
   <si>
+    <t>1. The installer wizard launches successfully.
+2. The installation proceeds without errors.
+3. The Carbonite client is successfully installed.
+4. The installer window closes.</t>
+  </si>
+  <si>
+    <t>DESKTOP-TC002</t>
+  </si>
+  <si>
+    <t>Verify cancellation of the installation</t>
+  </si>
+  <si>
     <t>1. Execute the installer file.
-2. Click 'Next' on the welcome screen.
+2. Click 'Cancel' at any point during the installation process.</t>
+  </si>
+  <si>
+    <t>. A confirmation dialog appears asking to confirm cancellation.
+2. Upon confirmation, the installer closes.
+3. The application is not installed.</t>
+  </si>
+  <si>
+    <t>WEB-TC004</t>
+  </si>
+  <si>
+    <t>Verify Accept Cookies is working on website launch</t>
+  </si>
+  <si>
+    <t>Internet Connection</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://www.carbonite.com/backup-software/safe-personal-trial/
+2.Wit fr the page load and Cookies Popup to appear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The page loads successfully.
+2.The Website Cookies option should appear with "Accept" and "Reject" buttons </t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The page loads successfully.
+2.The Website Cookies appear with "Accept" and "Reject" buttons </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. The page loads successfully.
+2. All fields are filled correctly.
+3. The form is submitted, and the installer download begins automatically.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The complete test is working manually but Was unable to automate Captcha hence not working in my code.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Execute the installer file..
 3. Accept the license agreement.
 4. Click 'Next' to proceed.
 5. verify the installation begins.
 6. Click 'Finish' on the final screen.</t>
-  </si>
-  <si>
-    <t>1. The installer wizard launches successfully.
-2. The installation proceeds without errors.
-3. The Carbonite client is successfully installed.
-4. The installer window closes.</t>
-  </si>
-  <si>
-    <t>DESKTOP-TC002</t>
-  </si>
-  <si>
-    <t>Verify cancellation of the installation</t>
-  </si>
-  <si>
-    <t>1. Execute the installer file.
-2. Click 'Cancel' at any point during the installation process.</t>
-  </si>
-  <si>
-    <t>. A confirmation dialog appears asking to confirm cancellation.
-2. Upon confirmation, the installer closes.
-3. The application is not installed.</t>
   </si>
 </sst>
 </file>
@@ -195,10 +237,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -481,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F10:F12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,91 +572,103 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
+      <c r="D2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -619,10 +677,36 @@
         <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
